--- a/Java Topics.xlsx
+++ b/Java Topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Materials\InterviewMaterial\Java Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5B71BC-DB04-489E-AA24-F65186CC7A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C1C5E-F9ED-4AC1-8B57-B847D1ED9C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="869" activeTab="4" xr2:uid="{0995EF91-D60A-4735-A422-239297738B9A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="313">
   <si>
     <t>Core Java Topics:</t>
   </si>
@@ -949,6 +949,33 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=b7Pev6i8fso&amp;t=520s&amp;ab_channel=CodeDecode</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7yPalDu6gx8</t>
+  </si>
+  <si>
+    <t> Hibernate Tutorial | Caching Level 2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A5nCPqPH3Fc&amp;t=12s&amp;ab_channel=JavaTechie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ckfqcfzCg3w&amp;ab_channel=JavaTechie</t>
+  </si>
+  <si>
+    <t>Spring Boot WebFlux | Project setup &amp; understanding Mono &amp; Flux Internal Workflow | JavaTechie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qODoDq5_hAM&amp;ab_channel=JavaTechie</t>
+  </si>
+  <si>
+    <t>Spring Cloud API Gateway | JWT Security | Pass UserDetails to Microservices | JavaTechie</t>
+  </si>
+  <si>
+    <t>How to pass User Information from API Gateway to other microservices</t>
+  </si>
+  <si>
+    <t>Spring Asynchronous</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1709,6 +1736,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18512,10 +18542,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD04789-89A3-4EDF-B0FB-977D3C277249}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D47" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18567,7 +18597,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>171</v>
@@ -18938,10 +18968,57 @@
         <v>303</v>
       </c>
     </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C59" s="66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" s="102" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="74" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C62" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" s="74" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C63" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="D63" s="74" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="66" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="D65" s="74" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D29" r:id="rId1" xr:uid="{D892D406-9ADA-4F5D-8BB3-F6A1F07F6154}"/>
     <hyperlink ref="D34" r:id="rId2" xr:uid="{23F42F4A-DBDE-400B-977C-FA2FF7BBC9B1}"/>
+    <hyperlink ref="D59" r:id="rId3" xr:uid="{5FD2E1D4-49EB-408A-86AE-C5A925182BCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Java Topics.xlsx
+++ b/Java Topics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study Materials\InterviewMaterial\Java Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C1C5E-F9ED-4AC1-8B57-B847D1ED9C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58533F59-9E12-40FF-8F42-77ECC88A0C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="869" activeTab="4" xr2:uid="{0995EF91-D60A-4735-A422-239297738B9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="869" activeTab="1" xr2:uid="{0995EF91-D60A-4735-A422-239297738B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="All Topics" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="335">
   <si>
     <t>Core Java Topics:</t>
   </si>
@@ -976,13 +976,79 @@
   </si>
   <si>
     <t>Spring Asynchronous</t>
+  </si>
+  <si>
+    <t>SubsetsExample</t>
+  </si>
+  <si>
+    <t>Array Subsets Example</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Iafp5v3eVyQ&amp;ab_channel=JavaTechie</t>
+  </si>
+  <si>
+    <t>Togglz 🔥 | Runtime Feature Rollouts in Spring Boot Application | JavaTechie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Runtime Feature Rollouts</t>
+  </si>
+  <si>
+    <t>AtomicVariable</t>
+  </si>
+  <si>
+    <t>Atomic Variable</t>
+  </si>
+  <si>
+    <t>UIBank</t>
+  </si>
+  <si>
+    <t>Synchronization Example</t>
+  </si>
+  <si>
+    <t>ThreadSynchronization</t>
+  </si>
+  <si>
+    <t>MissingElementArray</t>
+  </si>
+  <si>
+    <t>Array Missing Element</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1142,6 +1208,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1169,7 +1241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1504,12 +1576,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1631,7 +1716,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1679,6 +1763,24 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1730,13 +1832,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1744,7 +1840,231 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -13487,6 +13807,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD11BBE6-1135-4D69-9985-E71CCAA7CA45}" name="Table2" displayName="Table2" ref="A1:P500" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A1:P500" xr:uid="{FD11BBE6-1135-4D69-9985-E71CCAA7CA45}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{2EBE5FA3-ABB7-4AEB-BD54-FAD0EB32331B}" name="Sq." dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E456D484-5A74-4CBD-9956-5359894918A4}" name="Topic" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6859FFEB-D962-4B7F-AA3D-1A060B40B816}" name="Description" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{988ACCF2-216F-4613-9F13-626575F10BF5}" name="Links" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{2012FEFF-3147-4847-8CB9-44283103338D}" name="Git Project Link" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{D091F7D2-144A-4F6E-BCB2-07B0506F05F6}" name="My Project Work" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E5F43723-9FA9-4AA4-B0AD-2AD5AD8A8DE2}" name="Column1"/>
+    <tableColumn id="8" xr3:uid="{0D34A735-4316-42CE-B404-8379D023F54F}" name="Column2"/>
+    <tableColumn id="9" xr3:uid="{3B5C233F-9320-4671-8C6C-3FC3E077C173}" name="Column3"/>
+    <tableColumn id="10" xr3:uid="{ED493025-F326-4A3D-836E-D0850B296A79}" name="Column4"/>
+    <tableColumn id="11" xr3:uid="{A8212895-2CC7-4350-96C4-186BCDC3795C}" name="Column5"/>
+    <tableColumn id="12" xr3:uid="{13219147-EEB2-4F63-8B92-47161BEBFF0F}" name="Column6"/>
+    <tableColumn id="13" xr3:uid="{095D9162-92E6-4140-9A5B-B66114C180BF}" name="Column7"/>
+    <tableColumn id="14" xr3:uid="{72460A89-8683-41D4-9C80-C06F1FDBFBA6}" name="Column8"/>
+    <tableColumn id="15" xr3:uid="{8DE88606-83EE-4AD3-863A-84A7E1FB83DD}" name="Column9"/>
+    <tableColumn id="16" xr3:uid="{543471AA-4D80-411E-8A1D-BF4C083B97CA}" name="Column10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{544706E1-6A0F-4475-9B58-95A5B15AC946}" name="Table1" displayName="Table1" ref="A1:A24" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:A24" xr:uid="{544706E1-6A0F-4475-9B58-95A5B15AC946}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C1B04E3D-9FD4-420E-A848-44BFA2FE2045}" name="Extra Topics" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13790,7 +14145,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="34.21875" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="2" customWidth="1"/>
@@ -13807,22 +14162,22 @@
     <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="94"/>
       <c r="C1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="G1" s="84" t="s">
+      <c r="E1" s="94"/>
+      <c r="G1" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="84"/>
+      <c r="H1" s="95"/>
       <c r="J1" s="10" t="s">
         <v>127</v>
       </c>
@@ -13833,28 +14188,28 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15" thickBot="1">
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15" thickBot="1">
       <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="82"/>
+      <c r="E3" s="93"/>
       <c r="G3" s="38"/>
       <c r="H3" s="39"/>
       <c r="J3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15">
       <c r="A4" s="18" t="s">
         <v>8</v>
       </c>
@@ -13869,7 +14224,7 @@
       </c>
       <c r="H4" s="35"/>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15">
       <c r="A5" s="18" t="s">
         <v>72</v>
       </c>
@@ -13884,7 +14239,7 @@
       </c>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15">
       <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
@@ -13899,7 +14254,7 @@
       </c>
       <c r="H6" s="35"/>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="18" t="s">
         <v>1</v>
       </c>
@@ -13914,7 +14269,7 @@
       </c>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -13929,7 +14284,7 @@
       </c>
       <c r="H8" s="35"/>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15">
       <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
@@ -13944,7 +14299,7 @@
       </c>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="20" t="s">
         <v>5</v>
       </c>
@@ -13959,7 +14314,7 @@
       </c>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="20" t="s">
         <v>6</v>
       </c>
@@ -13974,7 +14329,7 @@
       </c>
       <c r="H11" s="35"/>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="20" t="s">
         <v>7</v>
       </c>
@@ -13989,7 +14344,7 @@
       </c>
       <c r="H12" s="35"/>
     </row>
-    <row r="13" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.6" thickBot="1">
       <c r="A13" s="20" t="s">
         <v>11</v>
       </c>
@@ -14004,7 +14359,7 @@
       </c>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15">
       <c r="A14" s="18" t="s">
         <v>10</v>
       </c>
@@ -14015,7 +14370,7 @@
       </c>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.6" thickBot="1">
       <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
@@ -14026,7 +14381,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:15" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.6" thickBot="1">
       <c r="A16" s="20" t="s">
         <v>31</v>
       </c>
@@ -14036,12 +14391,12 @@
         <v>58</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="80"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+      <c r="H16" s="91"/>
+    </row>
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
@@ -14056,7 +14411,7 @@
       </c>
       <c r="H17" s="35"/>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="20" t="s">
         <v>33</v>
       </c>
@@ -14071,7 +14426,7 @@
       </c>
       <c r="H18" s="35"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="20" t="s">
         <v>13</v>
       </c>
@@ -14086,7 +14441,7 @@
       </c>
       <c r="H19" s="35"/>
     </row>
-    <row r="20" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16.2" thickBot="1">
       <c r="A20" s="20" t="s">
         <v>14</v>
       </c>
@@ -14101,7 +14456,7 @@
       </c>
       <c r="H20" s="35"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="20" t="s">
         <v>15</v>
       </c>
@@ -14112,22 +14467,22 @@
       </c>
       <c r="H21" s="35"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="89"/>
+      <c r="E22" s="100"/>
       <c r="G22" s="36" t="s">
         <v>78</v>
       </c>
       <c r="H22" s="35"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="20" t="s">
         <v>17</v>
       </c>
@@ -14138,7 +14493,7 @@
       </c>
       <c r="H23" s="35"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="20" t="s">
         <v>18</v>
       </c>
@@ -14152,7 +14507,7 @@
       </c>
       <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" s="20" t="s">
         <v>19</v>
       </c>
@@ -14164,7 +14519,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="37"/>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" s="20" t="s">
         <v>20</v>
       </c>
@@ -14174,7 +14529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" s="20" t="s">
         <v>21</v>
       </c>
@@ -14187,7 +14542,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="20" t="s">
         <v>22</v>
       </c>
@@ -14200,7 +14555,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="20" t="s">
         <v>23</v>
       </c>
@@ -14215,7 +14570,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="20" t="s">
         <v>24</v>
       </c>
@@ -14228,7 +14583,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="20" t="s">
         <v>25</v>
       </c>
@@ -14241,7 +14596,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="20" t="s">
         <v>26</v>
       </c>
@@ -14254,7 +14609,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15" thickBot="1">
       <c r="A33" s="20" t="s">
         <v>68</v>
       </c>
@@ -14267,7 +14622,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15" thickBot="1">
       <c r="A34" s="20" t="s">
         <v>69</v>
       </c>
@@ -14277,7 +14632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="21" t="s">
         <v>70</v>
       </c>
@@ -14286,7 +14641,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15" thickBot="1">
       <c r="A36" s="20" t="s">
         <v>73</v>
       </c>
@@ -14295,20 +14650,20 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15" thickBot="1">
       <c r="A37" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="19"/>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="82"/>
+      <c r="E37" s="93"/>
       <c r="G37" s="30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15" thickBot="1">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="D38" s="24"/>
@@ -14317,14 +14672,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15" thickBot="1">
       <c r="D39" s="24"/>
       <c r="E39" s="12"/>
       <c r="G39" s="27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15" thickBot="1">
       <c r="A40" s="29" t="s">
         <v>111</v>
       </c>
@@ -14334,7 +14689,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="26" t="s">
         <v>110</v>
       </c>
@@ -14344,7 +14699,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="27" t="s">
         <v>112</v>
       </c>
@@ -14354,7 +14709,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="27" t="s">
         <v>113</v>
       </c>
@@ -14364,7 +14719,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="27" t="s">
         <v>114</v>
       </c>
@@ -14374,7 +14729,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="27" t="s">
         <v>126</v>
       </c>
@@ -14384,7 +14739,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="27"/>
       <c r="D46" s="24"/>
       <c r="E46" s="12"/>
@@ -14392,7 +14747,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15.6">
       <c r="A47" s="27"/>
       <c r="D47" s="24"/>
       <c r="E47" s="12"/>
@@ -14400,7 +14755,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="27"/>
       <c r="D48" s="24"/>
       <c r="E48" s="12"/>
@@ -14408,7 +14763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15" thickBot="1">
       <c r="A49" s="27"/>
       <c r="D49" s="25"/>
       <c r="E49" s="15"/>
@@ -14416,107 +14771,107 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="27"/>
       <c r="G50" s="30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16.2" thickBot="1">
       <c r="A51" s="28"/>
       <c r="G51" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.6">
       <c r="G52" s="32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="G53" s="30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="G54" s="42" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="G55" s="30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15" thickBot="1">
       <c r="G56" s="30"/>
     </row>
-    <row r="57" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A57" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="90" t="s">
+      <c r="B57" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="91"/>
+      <c r="C57" s="102"/>
       <c r="D57" s="8"/>
       <c r="G57" s="43"/>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15" thickBot="1">
       <c r="A58" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="93"/>
+      <c r="C58" s="104"/>
       <c r="G58" s="33"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="85"/>
-      <c r="C59" s="86"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="96"/>
+      <c r="C59" s="97"/>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="85"/>
-      <c r="C60" s="86"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="96"/>
+      <c r="C60" s="97"/>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="86"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="96"/>
+      <c r="C61" s="97"/>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="18"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="86"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="96"/>
+      <c r="C62" s="97"/>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="18"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="86"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="96"/>
+      <c r="C63" s="97"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="18"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="86"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="96"/>
+      <c r="C64" s="97"/>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="18"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="86"/>
-    </row>
-    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="96"/>
+      <c r="C65" s="97"/>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1">
       <c r="A66" s="22"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="88"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="99"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B34" xr:uid="{4ABD2C64-102D-4698-ACF0-D0CAC4FB836F}"/>
@@ -17880,24 +18235,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87773280-64E2-4CC4-8CDF-05D48C28CF86}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="116.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="106"/>
       <c r="C1" s="7" t="s">
         <v>155</v>
       </c>
@@ -17905,13 +18260,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="50">
         <v>1</v>
       </c>
       <c r="B2" s="46"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="50">
         <v>2</v>
       </c>
@@ -17919,7 +18274,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="50">
         <v>3</v>
       </c>
@@ -17930,13 +18285,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="50">
         <v>4</v>
       </c>
       <c r="B5" s="46"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="50">
         <v>5</v>
       </c>
@@ -17944,186 +18299,186 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="50"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="78" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="50"/>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="78" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="50"/>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="78" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="50"/>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="78" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="50"/>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="78" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="50"/>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="78" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="50"/>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="78" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="50"/>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="78" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="50"/>
       <c r="B15" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="78" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="50"/>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="78" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17" s="50"/>
       <c r="B17" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="78" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" s="50"/>
       <c r="B18" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="78" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" s="50"/>
       <c r="B19" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="78" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" s="50"/>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="78" t="s">
         <v>267</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="78" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" s="50"/>
       <c r="B21" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="79" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" s="50"/>
       <c r="B22" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="78" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" s="50"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="78" t="s">
         <v>273</v>
       </c>
-      <c r="D23" s="96" t="s">
+      <c r="D23" s="78" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" s="50"/>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="78" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25" s="52"/>
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="D25" s="96" t="s">
+      <c r="D25" s="78" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="98" t="s">
+    <row r="26" spans="1:4">
+      <c r="B26" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="78" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="B27" t="s">
         <v>278</v>
       </c>
@@ -18131,161 +18486,201 @@
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D28" s="96" t="s">
+    <row r="28" spans="1:4">
+      <c r="D28" s="78" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="98" t="s">
+    <row r="29" spans="1:4">
+      <c r="B29" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="78" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="96" t="s">
+    <row r="30" spans="1:4">
+      <c r="B30" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="78" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="96" t="s">
+    <row r="31" spans="1:4">
+      <c r="B31" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="D31" s="96" t="s">
+      <c r="D31" s="78" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="96" t="s">
+    <row r="32" spans="1:4">
+      <c r="B32" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="78" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="100" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" s="81" t="s">
         <v>285</v>
       </c>
-      <c r="D33" s="96" t="s">
+      <c r="D33" s="78" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="96" t="s">
+    <row r="35" spans="2:4">
+      <c r="B35" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="D37" s="96" t="s">
+      <c r="D37" s="78" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="96" t="s">
+    <row r="38" spans="2:4">
+      <c r="B38" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="78" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="96" t="s">
+    <row r="39" spans="2:4">
+      <c r="B39" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D39" s="96" t="s">
+      <c r="D39" s="78" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="96" t="s">
+    <row r="40" spans="2:4">
+      <c r="B40" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="78" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="96" t="s">
+    <row r="41" spans="2:4">
+      <c r="B41" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="D41" s="96" t="s">
+      <c r="D41" s="78" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="99" t="s">
+    <row r="43" spans="2:4">
+      <c r="B43" s="80" t="s">
         <v>290</v>
       </c>
-      <c r="D43" s="96" t="s">
+      <c r="D43" s="78" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="96" t="s">
+    <row r="44" spans="2:4">
+      <c r="B44" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="D44" s="96" t="s">
+      <c r="D44" s="78" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="96" t="s">
+    <row r="45" spans="2:4">
+      <c r="B45" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="D45" s="96" t="s">
+      <c r="D45" s="78" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="96" t="s">
+    <row r="46" spans="2:4">
+      <c r="B46" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="D46" s="96" t="s">
+      <c r="D46" s="78" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="96" t="s">
+    <row r="47" spans="2:4">
+      <c r="B47" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="D47" s="96" t="s">
+      <c r="D47" s="78" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="96" t="s">
+    <row r="48" spans="2:4">
+      <c r="B48" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="D48" s="96" t="s">
+      <c r="D48" s="78" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="96" t="s">
+    <row r="50" spans="2:4">
+      <c r="B50" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="D50" s="96" t="s">
+      <c r="D50" s="78" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="96" t="s">
+    <row r="51" spans="2:4">
+      <c r="B51" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="D51" s="96" t="s">
+      <c r="D51" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="101" t="s">
+    <row r="52" spans="2:4">
+      <c r="B52" s="82" t="s">
         <v>300</v>
       </c>
-      <c r="D52" s="96" t="s">
+      <c r="D52" s="78" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="107" t="s">
+        <v>329</v>
+      </c>
+      <c r="D53" s="107" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>331</v>
+      </c>
+      <c r="D54" s="107" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55" s="107" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="D56" s="107" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -18304,14 +18699,14 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.21875" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -18322,7 +18717,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -18331,7 +18726,7 @@
       </c>
       <c r="G2" s="46"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -18340,7 +18735,7 @@
       </c>
       <c r="G3" s="46"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -18349,7 +18744,7 @@
       </c>
       <c r="G4" s="46"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -18358,87 +18753,87 @@
       </c>
       <c r="G5" s="46"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="D6" s="46"/>
       <c r="G6" s="46"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="D7" s="46"/>
       <c r="G7" s="46"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="D8" s="46"/>
       <c r="G8" s="46"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="D9" s="46"/>
       <c r="G9" s="46"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="D10" s="46"/>
       <c r="G10" s="46"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="D11" s="46"/>
       <c r="G11" s="46"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="D12" s="46"/>
       <c r="G12" s="46"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="D13" s="46"/>
       <c r="G13" s="46"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="D14" s="46"/>
       <c r="G14" s="46"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="D15" s="46"/>
       <c r="G15" s="46"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="D16" s="46"/>
       <c r="G16" s="46"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7">
       <c r="D17" s="46"/>
       <c r="G17" s="46"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:7">
       <c r="D18" s="46"/>
       <c r="G18" s="46"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:7">
       <c r="D19" s="47"/>
       <c r="G19" s="46"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:7">
       <c r="G20" s="46"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:7">
       <c r="G21" s="46"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:7">
       <c r="G22" s="46"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:7">
       <c r="G23" s="46"/>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:7">
       <c r="G24" s="46"/>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7">
       <c r="G25" s="46"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:7">
       <c r="G26" s="46"/>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:7">
       <c r="G27" s="46"/>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:7">
       <c r="G28" s="47"/>
     </row>
   </sheetData>
@@ -18454,14 +18849,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="70.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="56" t="s">
         <v>111</v>
       </c>
@@ -18472,7 +18867,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="57.6">
       <c r="A2" s="55" t="s">
         <v>110</v>
       </c>
@@ -18483,51 +18878,51 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="50" t="s">
         <v>112</v>
       </c>
       <c r="C3" s="53"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="50" t="s">
         <v>113</v>
       </c>
       <c r="C4" s="53"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="50" t="s">
         <v>114</v>
       </c>
       <c r="C5" s="53"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="50" t="s">
         <v>126</v>
       </c>
       <c r="C6" s="53"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="50"/>
       <c r="C7" s="53"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="50"/>
       <c r="C8" s="53"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="50"/>
       <c r="C9" s="53"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="50"/>
       <c r="C10" s="53"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="50"/>
       <c r="C11" s="53"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="52"/>
       <c r="B12" s="59"/>
       <c r="C12" s="54"/>
@@ -18542,485 +18937,1933 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD04789-89A3-4EDF-B0FB-977D3C277249}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:P500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="62"/>
-    <col min="2" max="2" width="25.33203125" style="66" customWidth="1"/>
-    <col min="3" max="3" width="95.33203125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="109.44140625" style="74" customWidth="1"/>
-    <col min="5" max="5" width="43.88671875" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="65" customWidth="1"/>
+    <col min="3" max="3" width="95.33203125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="111.109375" style="73" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.88671875" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1">
+      <c r="A1" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="62" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="62">
+      <c r="G1" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="89">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>164</v>
       </c>
       <c r="D2" s="74" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="62">
+    <row r="3" spans="1:16">
+      <c r="A3" s="89">
         <v>2</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="65" t="s">
         <v>171</v>
       </c>
       <c r="D3" s="74" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="62">
+    <row r="4" spans="1:16">
+      <c r="A4" s="89">
         <v>3</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="62">
+    <row r="5" spans="1:16">
+      <c r="A5" s="89">
         <v>4</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="62">
+    <row r="6" spans="1:16">
+      <c r="A6" s="89">
         <v>5</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="73" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="62">
+    <row r="7" spans="1:16">
+      <c r="A7" s="89">
         <v>6</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="73" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="62">
+    <row r="8" spans="1:16" ht="28.8">
+      <c r="A8" s="89">
         <v>7</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="64" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="89"/>
+      <c r="B9" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="66" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="89"/>
+      <c r="C10" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="73" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="67" t="s">
+    <row r="11" spans="1:16">
+      <c r="A11" s="89"/>
+      <c r="B11" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="73" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="68" t="s">
+    <row r="12" spans="1:16" ht="28.8">
+      <c r="A12" s="89"/>
+      <c r="B12" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="65" t="s">
         <v>231</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="69" t="s">
+    <row r="13" spans="1:16" ht="28.8">
+      <c r="A13" s="89"/>
+      <c r="B13" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>227</v>
       </c>
       <c r="D13" s="74" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="69"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="69"/>
-      <c r="C15" s="66" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14" s="89"/>
+      <c r="B14" s="68"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="89"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="73" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="69"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="69" t="s">
+    <row r="16" spans="1:16">
+      <c r="A16" s="89"/>
+      <c r="B16" s="68"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="89"/>
+      <c r="B17" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="73" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="69"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C19" s="66" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="89"/>
+      <c r="B18" s="68"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="89"/>
+      <c r="C19" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="73" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="66" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="89"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="89"/>
+      <c r="C21" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="73" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="66" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="89"/>
+      <c r="C22" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="73" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C24" s="66" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="89"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="89"/>
+      <c r="C24" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="73" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C25" s="66" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="89"/>
+      <c r="C25" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="73" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="66" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="89"/>
+      <c r="C26" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="73" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C27" s="66" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="89"/>
+      <c r="C27" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="73" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="66" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="89"/>
+      <c r="C28" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="73" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="66" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="89"/>
+      <c r="C29" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="74" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="66" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="89"/>
+      <c r="C30" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="73" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="66" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="89"/>
+      <c r="C31" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="73" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="69" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="89"/>
+    </row>
+    <row r="33" spans="1:5" ht="57.6">
+      <c r="A33" s="89"/>
+      <c r="B33" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="73" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="66" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="89"/>
+      <c r="C34" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="75" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="66" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="89"/>
+      <c r="C35" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="73" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="69" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="89"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="89"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="89"/>
+      <c r="B38" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="73" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="66" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" s="89"/>
+      <c r="C39" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="74" t="s">
+      <c r="D39" s="73" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B42" s="67" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="89"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="89"/>
+    </row>
+    <row r="42" spans="1:5" ht="43.2">
+      <c r="A42" s="89"/>
+      <c r="B42" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="74" t="s">
+      <c r="D42" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="E42" s="62" t="s">
+      <c r="E42" s="61" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="70" t="s">
+    <row r="43" spans="1:5" ht="28.8">
+      <c r="A43" s="89"/>
+      <c r="B43" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="D43" s="74" t="s">
+      <c r="D43" s="73" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="70" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="89"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="89"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="89"/>
+      <c r="B46" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="74" t="s">
+      <c r="D46" s="73" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="66" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="89"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="89"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="89"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="89"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="89"/>
+      <c r="B51" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="D51" s="74" t="s">
+      <c r="D51" s="73" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="B54" s="71" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="89"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="89"/>
+    </row>
+    <row r="54" spans="1:4" ht="18">
+      <c r="A54" s="89"/>
+      <c r="B54" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="74" t="s">
+      <c r="D54" s="73" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="C55" s="78" t="s">
+    <row r="55" spans="1:4" ht="18">
+      <c r="A55" s="89"/>
+      <c r="C55" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="76" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="66" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="89"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="89"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="89"/>
+      <c r="B58" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="D58" s="74" t="s">
+      <c r="D58" s="73" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C59" s="66" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="89"/>
+      <c r="C59" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="D59" s="102" t="s">
+      <c r="D59" s="83" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="66" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="89"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="89"/>
+      <c r="B61" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="D61" s="74" t="s">
+      <c r="D61" s="73" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C62" s="66" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="89"/>
+      <c r="C62" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="74" t="s">
+      <c r="D62" s="73" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C63" s="66" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="89"/>
+      <c r="C63" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="D63" s="74" t="s">
+      <c r="D63" s="73" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="66" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="89"/>
+    </row>
+    <row r="65" spans="1:4" ht="43.2">
+      <c r="A65" s="89"/>
+      <c r="B65" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="D65" s="74" t="s">
+      <c r="D65" s="73" t="s">
         <v>309</v>
       </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="89"/>
+      <c r="B66" s="65" t="s">
+        <v>327</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="D66" s="73" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="89"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="89"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="89"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="89"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="89"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="89"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="89"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="89"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="89"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="89"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="89"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="89"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="89"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="89"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="89"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="89"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="89"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="89"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="89"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="89"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="89"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="89"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="89"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="89"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="89"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="89"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="89"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="89"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="89"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="89"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="89"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="89"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="89"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="89"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="89"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="89"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="89"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="89"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="89"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="89"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="89"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="89"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="89"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="89"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="89"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="89"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="89"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="89"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="89"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="89"/>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="89"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="89"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="89"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="89"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="89"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="89"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="89"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="89"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="89"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="89"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="89"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="89"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="89"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="89"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="89"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="89"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="89"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="89"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="89"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="89"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="89"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="89"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="89"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="89"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="89"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="89"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="89"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="89"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="89"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="89"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="89"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="89"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="89"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="89"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="89"/>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="89"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="89"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="89"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="89"/>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="89"/>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="89"/>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="89"/>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="89"/>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="89"/>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="89"/>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="89"/>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="89"/>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="89"/>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="89"/>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="89"/>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="89"/>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="89"/>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="89"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="89"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="89"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="89"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="89"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="89"/>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="89"/>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="89"/>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="89"/>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="89"/>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="89"/>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="89"/>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="89"/>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="89"/>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="89"/>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="89"/>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="89"/>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="89"/>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="89"/>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="89"/>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="89"/>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="89"/>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="89"/>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="89"/>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="89"/>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="89"/>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="89"/>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="89"/>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="89"/>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="89"/>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="89"/>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="89"/>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="89"/>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="89"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="89"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="89"/>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="89"/>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="89"/>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="89"/>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="89"/>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="89"/>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="89"/>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="89"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="89"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="89"/>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="89"/>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="89"/>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="89"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="89"/>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="89"/>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="89"/>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="89"/>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="89"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="89"/>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="89"/>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="89"/>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="89"/>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="89"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="89"/>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="89"/>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="89"/>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="89"/>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="89"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="89"/>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="89"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="89"/>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="89"/>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="89"/>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="89"/>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="89"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="89"/>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="89"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="89"/>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="89"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="89"/>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="89"/>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="89"/>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="89"/>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="89"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="89"/>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="89"/>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="89"/>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="89"/>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="89"/>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="89"/>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="89"/>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="89"/>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="89"/>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="89"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="89"/>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="89"/>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="89"/>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="89"/>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="89"/>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="89"/>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="89"/>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="89"/>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="89"/>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="89"/>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="89"/>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="89"/>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="89"/>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="89"/>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="89"/>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="89"/>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="89"/>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="89"/>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="89"/>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="89"/>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="89"/>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="89"/>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="89"/>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="89"/>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="89"/>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="89"/>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="89"/>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="89"/>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="89"/>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="89"/>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="89"/>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="89"/>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="89"/>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="89"/>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="89"/>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="89"/>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="89"/>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="89"/>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="89"/>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="89"/>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="89"/>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="89"/>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="89"/>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="89"/>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="89"/>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="89"/>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="89"/>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="89"/>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="89"/>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="89"/>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="89"/>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="89"/>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="89"/>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="89"/>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="89"/>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="89"/>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="89"/>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="89"/>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="89"/>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="89"/>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="89"/>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="89"/>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="89"/>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="89"/>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="89"/>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="89"/>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="89"/>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="89"/>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="89"/>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="89"/>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="89"/>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="89"/>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="89"/>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="89"/>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="89"/>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="89"/>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="89"/>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="89"/>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="89"/>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="89"/>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="89"/>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="89"/>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="89"/>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="89"/>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="89"/>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="89"/>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="89"/>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="89"/>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="89"/>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="89"/>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="89"/>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="89"/>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="89"/>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="89"/>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="89"/>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="89"/>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="89"/>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="89"/>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="89"/>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="89"/>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="89"/>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="89"/>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="89"/>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="89"/>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="89"/>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="89"/>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="89"/>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="89"/>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="89"/>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="89"/>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="89"/>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="89"/>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="89"/>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="89"/>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="89"/>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="89"/>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="89"/>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="89"/>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="89"/>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="89"/>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="89"/>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="89"/>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="89"/>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="89"/>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="89"/>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="89"/>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="89"/>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="89"/>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="89"/>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="89"/>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="89"/>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="89"/>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="89"/>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="89"/>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="89"/>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="89"/>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="89"/>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="89"/>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="89"/>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="89"/>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="89"/>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="89"/>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="89"/>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="89"/>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="89"/>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="89"/>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="89"/>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="89"/>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="89"/>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="89"/>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="89"/>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="89"/>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="89"/>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="89"/>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="89"/>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="89"/>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="89"/>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="89"/>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="89"/>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="89"/>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="89"/>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="89"/>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="89"/>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="89"/>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="89"/>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="89"/>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="89"/>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="89"/>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="89"/>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="89"/>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="89"/>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="89"/>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="89"/>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="89"/>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="89"/>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="89"/>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="89"/>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="89"/>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="89"/>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="89"/>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="89"/>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="89"/>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="89"/>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="89"/>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="89"/>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="89"/>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="89"/>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="89"/>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="89"/>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="89"/>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="89"/>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="89"/>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="89"/>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="89"/>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="89"/>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="89"/>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="89"/>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="89"/>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="89"/>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="89"/>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="89"/>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="89"/>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="89"/>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="89"/>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="89"/>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="89"/>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="89"/>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="89"/>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="89"/>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="89"/>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="89"/>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="89"/>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="89"/>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="89"/>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="89"/>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="89"/>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="89"/>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="89"/>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="89"/>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="89"/>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="89"/>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="89"/>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="89"/>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="89"/>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="89"/>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="89"/>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="89"/>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="89"/>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="89"/>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="89"/>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="89"/>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="89"/>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="89"/>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="89"/>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="89"/>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="89"/>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="89"/>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="89"/>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="89"/>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="89"/>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="89"/>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="89"/>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="89"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D29" r:id="rId1" xr:uid="{D892D406-9ADA-4F5D-8BB3-F6A1F07F6154}"/>
     <hyperlink ref="D34" r:id="rId2" xr:uid="{23F42F4A-DBDE-400B-977C-FA2FF7BBC9B1}"/>
     <hyperlink ref="D59" r:id="rId3" xr:uid="{5FD2E1D4-49EB-408A-86AE-C5A925182BCD}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{F9CE32C4-A185-48D5-B613-8AC4F7ABF85C}"/>
+    <hyperlink ref="D13" r:id="rId5" xr:uid="{E835658E-F4AF-4254-AACB-9057EC8AEEF9}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{B941EF10-00BC-4899-82D8-2A5B50328A0F}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{116C5DA2-8BF3-429A-AF58-C440B7429DE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId8"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -19029,130 +20872,133 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="51.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:1" ht="15.6">
+      <c r="A13" s="84" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:1" ht="15.6">
+      <c r="A17" s="85" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:1" ht="15.6">
+      <c r="A18" s="85" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="86" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -19164,42 +21010,42 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1">
       <c r="A1" s="34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="30" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" s="30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" s="30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="15" thickBot="1">
       <c r="A7" s="33" t="s">
         <v>109</v>
       </c>
@@ -19217,66 +21063,66 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
+      <c r="A1" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="80"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="91"/>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="35"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="35"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="36" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="35"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="36" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="35"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="36" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="35"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="36" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="35"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="36" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="35"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="35"/>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15" thickBot="1">
       <c r="A10" s="25"/>
       <c r="B10" s="37"/>
     </row>
@@ -19458,18 +21304,18 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.88671875" customWidth="1"/>
     <col min="10" max="10" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
+      <c r="A1" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="95"/>
       <c r="C1" s="44"/>
       <c r="F1" s="49" t="s">
         <v>125</v>
@@ -19478,7 +21324,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="24"/>
@@ -19489,7 +21335,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="40" t="s">
         <v>29</v>
       </c>
@@ -19499,7 +21345,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="24" t="s">
         <v>65</v>
       </c>
@@ -19509,7 +21355,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="40" t="s">
         <v>30</v>
       </c>
@@ -19519,7 +21365,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="24" t="s">
         <v>64</v>
       </c>
@@ -19529,34 +21375,34 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="35"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B9" s="35"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="24"/>
       <c r="B10" s="35"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="24"/>
       <c r="B11" s="35"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="25"/>
       <c r="B12" s="37"/>
     </row>
